--- a/medicine/Enfance/Luda_Schnitzer/Luda_Schnitzer.xlsx
+++ b/medicine/Enfance/Luda_Schnitzer/Luda_Schnitzer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Luda Schnitzer, née Ludmilla Makowsky  le 8 mars 1913 à Berlin de parents russes et morte le 24 avril 2002 à Paris[1],[2], est une écrivaine française.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Luda Schnitzer, née Ludmilla Makowsky  le 8 mars 1913 à Berlin de parents russes et morte le 24 avril 2002 à Paris est une écrivaine française.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Vivant en France depuis 1925, Luda Schnitzer a d'abord été sculpteur, puis journaliste pigiste.
 Elle est connue pour ses contes pour enfants (publiés notamment dans la collection du Père Castor) qu'elle signe sous le pseudonyme de Luda, et par ses ouvrages sur le cinéma russe qu'elle signe avec son mari, Jean Schnitzer. Elle est également traductrice de russe.
@@ -544,7 +558,9 @@
           <t>Quelques ouvrages publiés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cent mille flèches : trois légendes chinoises, LIRE, 1954
 Contes du Grand Nord, ill. René Moreu, LIRE, 1954
@@ -599,7 +615,9 @@
           <t>Traductions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Velimir Khlebnikov, Choix de poèmes, traduction et préface, édition bilingue, P.-J. Oswald, 1967.
 Velimir Khlebnikov, Le pieu du futur, traduction et préface, Éditions L'Âge d'Homme, 1970.
